--- a/public/documentos/Plantilla Derco.xlsx
+++ b/public/documentos/Plantilla Derco.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive\Escritorio\PROYECTO DERCO\proyecto-derco\public\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339CA218-045D-46B9-B6F7-E1627E478CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ECC2E4-7671-4DB0-A5EB-EEC4170E256E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>nombres</t>
   </si>
@@ -36,12 +36,6 @@
     <t>fechaCita</t>
   </si>
   <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
     <t>telefono</t>
   </si>
   <si>
@@ -66,19 +60,28 @@
     <t>correo</t>
   </si>
   <si>
-    <t>juan@hotmail.com</t>
-  </si>
-  <si>
     <t>JAJ124</t>
   </si>
   <si>
     <t>JIIF42</t>
   </si>
   <si>
-    <t>Martin Ri</t>
-  </si>
-  <si>
-    <t>Juan Per</t>
+    <t>Prueba1</t>
+  </si>
+  <si>
+    <t>Prueba2</t>
+  </si>
+  <si>
+    <t>24/03/2023 13:30:00</t>
+  </si>
+  <si>
+    <t>23/03/2023 17:15:00</t>
+  </si>
+  <si>
+    <t>prueba1@hotmail.com</t>
+  </si>
+  <si>
+    <t>prueba2@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,62 +435,62 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>987456321</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>123456789</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public/documentos/Plantilla Derco.xlsx
+++ b/public/documentos/Plantilla Derco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive\Escritorio\PROYECTO DERCO\proyecto-derco\public\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ECC2E4-7671-4DB0-A5EB-EEC4170E256E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354F6386-86D3-4457-B9A6-FC0D173ABEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,16 +72,16 @@
     <t>Prueba2</t>
   </si>
   <si>
-    <t>24/03/2023 13:30:00</t>
-  </si>
-  <si>
-    <t>23/03/2023 17:15:00</t>
-  </si>
-  <si>
     <t>prueba1@hotmail.com</t>
   </si>
   <si>
     <t>prueba2@hotmail.com</t>
+  </si>
+  <si>
+    <t>24/03/2023 13:30</t>
+  </si>
+  <si>
+    <t>23/03/2023 17:15</t>
   </si>
 </sst>
 </file>
@@ -414,13 +414,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -455,7 +456,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>987456321</v>
@@ -467,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -478,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>123456789</v>
@@ -490,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/documentos/Plantilla Derco.xlsx
+++ b/public/documentos/Plantilla Derco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive\Escritorio\PROYECTO DERCO\proyecto-derco\public\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354F6386-86D3-4457-B9A6-FC0D173ABEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77C7B3A-25B0-41CC-9107-1ECB0C1E06C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>nombres</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>23/03/2023 17:15</t>
+  </si>
+  <si>
+    <t>servicioSolicitado</t>
+  </si>
+  <si>
+    <t>Lavado Rapido</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,9 +429,10 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +454,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -458,8 +468,8 @@
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1">
-        <v>987456321</v>
+      <c r="D2">
+        <v>123654789</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -470,8 +480,11 @@
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -481,8 +494,8 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1">
-        <v>123456789</v>
+      <c r="D3">
+        <v>123654789</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
@@ -492,6 +505,9 @@
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
